--- a/doc/conditions.xlsx
+++ b/doc/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japmiett/projects/neurocenter/clinicaltrials/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A7EE1F-7F7C-B341-954C-3E8D1E25183B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39542E-341A-A248-9B4B-684F4E507E79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{2950F63C-1F2A-2549-BC3A-14330A7261B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2950F63C-1F2A-2549-BC3A-14330A7261B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="319">
   <si>
     <t>Aggression</t>
   </si>
@@ -580,13 +580,424 @@
   </si>
   <si>
     <t>Substance Related Disorders  </t>
+  </si>
+  <si>
+    <t>Abdominal Neoplasms</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma in Situ</t>
+  </si>
+  <si>
+    <t>Adenoma</t>
+  </si>
+  <si>
+    <t>Angiokeratoma</t>
+  </si>
+  <si>
+    <t>Astrocytoma</t>
+  </si>
+  <si>
+    <t>Bone Cysts</t>
+  </si>
+  <si>
+    <t>Bone Marrow Neoplasms</t>
+  </si>
+  <si>
+    <t>Bone Neoplasms</t>
+  </si>
+  <si>
+    <t>Breast Neoplasms</t>
+  </si>
+  <si>
+    <t>Bronchial Neoplasms</t>
+  </si>
+  <si>
+    <t>Burkitt Lymphoma</t>
+  </si>
+  <si>
+    <t>Carcinoma</t>
+  </si>
+  <si>
+    <t>Carcinoma in Situ</t>
+  </si>
+  <si>
+    <t>Carcinoma, Basal Cell</t>
+  </si>
+  <si>
+    <t>Carcinoma, Bronchogenic</t>
+  </si>
+  <si>
+    <t>Carcinoma, Hepatocellular</t>
+  </si>
+  <si>
+    <t>Carcinoma, Merkel Cell</t>
+  </si>
+  <si>
+    <t>Carcinoma, Neuroendocrine</t>
+  </si>
+  <si>
+    <t>Carcinoma, Non-Small-Cell Lung</t>
+  </si>
+  <si>
+    <t>Carcinoma, Ovarian Epithelial</t>
+  </si>
+  <si>
+    <t>Carcinoma, Renal Cell</t>
+  </si>
+  <si>
+    <t>Carcinoma, Squamous Cell</t>
+  </si>
+  <si>
+    <t>Carcinoma, Transitional Cell</t>
+  </si>
+  <si>
+    <t>Cervical Intraepithelial Neoplasia</t>
+  </si>
+  <si>
+    <t>Cholangiocarcinoma</t>
+  </si>
+  <si>
+    <t>Colonic Neoplasms</t>
+  </si>
+  <si>
+    <t>Colorectal Neoplasms</t>
+  </si>
+  <si>
+    <t>Cystadenocarcinoma, Serous</t>
+  </si>
+  <si>
+    <t>Cysts</t>
+  </si>
+  <si>
+    <t>Digestive System Neoplasms</t>
+  </si>
+  <si>
+    <t>Dupuytren Contracture</t>
+  </si>
+  <si>
+    <t>Endocrine Gland Neoplasms</t>
+  </si>
+  <si>
+    <t>Endometrial Neoplasms</t>
+  </si>
+  <si>
+    <t>Esophageal Neoplasms</t>
+  </si>
+  <si>
+    <t>Fallopian Tube Neoplasms</t>
+  </si>
+  <si>
+    <t>Fibroma</t>
+  </si>
+  <si>
+    <t>Ganglioglioma</t>
+  </si>
+  <si>
+    <t>Ganglion Cysts</t>
+  </si>
+  <si>
+    <t>Ganglioneuroma</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Neoplasms</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Stromal Tumors</t>
+  </si>
+  <si>
+    <t>Genital Neoplasms, Female</t>
+  </si>
+  <si>
+    <t>Genital Neoplasms, Male</t>
+  </si>
+  <si>
+    <t>Glioblastoma</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>Head and Neck Neoplasms</t>
+  </si>
+  <si>
+    <t>Heart Neoplasms</t>
+  </si>
+  <si>
+    <t>Hematologic Neoplasms</t>
+  </si>
+  <si>
+    <t>Histiocytoma, Malignant Fibrous</t>
+  </si>
+  <si>
+    <t>Intestinal Neoplasms</t>
+  </si>
+  <si>
+    <t>Kidney Neoplasms</t>
+  </si>
+  <si>
+    <t>Leiomyoma</t>
+  </si>
+  <si>
+    <t>Leiomyosarcoma</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Leukemia, B-Cell</t>
+  </si>
+  <si>
+    <t>Leukemia, Lymphocytic, Chronic, B-Cell</t>
+  </si>
+  <si>
+    <t>Leukemia, Lymphoid</t>
+  </si>
+  <si>
+    <t>Leukemia, Myelogenous, Chronic, BCR-ABL Positive</t>
+  </si>
+  <si>
+    <t>Leukemia, Myeloid</t>
+  </si>
+  <si>
+    <t>Leukemia, Myeloid, Acute</t>
+  </si>
+  <si>
+    <t>Leukemia, Myelomonocytic, Chronic</t>
+  </si>
+  <si>
+    <t>Leukemia, Myelomonocytic, Juvenile</t>
+  </si>
+  <si>
+    <t>Leukemia, Prolymphocytic</t>
+  </si>
+  <si>
+    <t>Leukemia, Prolymphocytic, T-Cell</t>
+  </si>
+  <si>
+    <t>Leukemia, T-Cell</t>
+  </si>
+  <si>
+    <t>Liposarcoma</t>
+  </si>
+  <si>
+    <t>Liver Neoplasms</t>
+  </si>
+  <si>
+    <t>Lung Neoplasms</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>Lymphoma, B-Cell</t>
+  </si>
+  <si>
+    <t>Lymphoma, B-Cell, Marginal Zone</t>
+  </si>
+  <si>
+    <t>Lymphoma, Follicular</t>
+  </si>
+  <si>
+    <t>Lymphoma, Large B-Cell, Diffuse</t>
+  </si>
+  <si>
+    <t>Lymphoma, Mantle-Cell</t>
+  </si>
+  <si>
+    <t>Lymphoma, Non-Hodgkin</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Mesothelioma</t>
+  </si>
+  <si>
+    <t>Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>Myofibroma</t>
+  </si>
+  <si>
+    <t>Neoplasm Metastasis</t>
+  </si>
+  <si>
+    <t>Neoplasm, Residual</t>
+  </si>
+  <si>
+    <t>Neoplasms by Histologic Type</t>
+  </si>
+  <si>
+    <t>Neoplasms, Basal Cell</t>
+  </si>
+  <si>
+    <t>Neoplasms, Bone Tissue</t>
+  </si>
+  <si>
+    <t>Neoplasms, Connective and Soft Tissue</t>
+  </si>
+  <si>
+    <t>Neoplasms, Connective Tissue</t>
+  </si>
+  <si>
+    <t>Neoplasms, Fibrous Tissue</t>
+  </si>
+  <si>
+    <t>Neoplasms, Germ Cell and Embryonal</t>
+  </si>
+  <si>
+    <t>Neoplasms, Glandular and Epithelial</t>
+  </si>
+  <si>
+    <t>Neoplasms, Mesothelial</t>
+  </si>
+  <si>
+    <t>Neoplasms, Nerve Tissue</t>
+  </si>
+  <si>
+    <t>Neoplasms, Neuroepithelial</t>
+  </si>
+  <si>
+    <t>Neoplasms, Plasma Cell</t>
+  </si>
+  <si>
+    <t>Neoplasms, Second Primary</t>
+  </si>
+  <si>
+    <t>Neoplasms, Squamous Cell</t>
+  </si>
+  <si>
+    <t>Neoplasms, Unknown Primary</t>
+  </si>
+  <si>
+    <t>Neoplastic Processes</t>
+  </si>
+  <si>
+    <t>Neuroectodermal Tumors</t>
+  </si>
+  <si>
+    <t>Neuroectodermal Tumors, Primitive</t>
+  </si>
+  <si>
+    <t>Neuroendocrine Tumors</t>
+  </si>
+  <si>
+    <t>Nevi and Melanomas</t>
+  </si>
+  <si>
+    <t>Nevus</t>
+  </si>
+  <si>
+    <t>Nevus, Pigmented</t>
+  </si>
+  <si>
+    <t>Oligodendroglioma</t>
+  </si>
+  <si>
+    <t>Osteosarcoma</t>
+  </si>
+  <si>
+    <t>Ovarian Cysts</t>
+  </si>
+  <si>
+    <t>Ovarian Neoplasms</t>
+  </si>
+  <si>
+    <t>Pancreatic Neoplasms</t>
+  </si>
+  <si>
+    <t>Penile Neoplasms</t>
+  </si>
+  <si>
+    <t>Peritoneal Neoplasms</t>
+  </si>
+  <si>
+    <t>Precancerous Conditions</t>
+  </si>
+  <si>
+    <t>Precursor Cell Lymphoblastic Leukemia-Lymphoma</t>
+  </si>
+  <si>
+    <t>Precursor T-Cell Lymphoblastic Leukemia-Lymphoma</t>
+  </si>
+  <si>
+    <t>Preleukemia</t>
+  </si>
+  <si>
+    <t>Prostatic Neoplasms</t>
+  </si>
+  <si>
+    <t>Rectal Neoplasms</t>
+  </si>
+  <si>
+    <t>Respiratory Tract Neoplasms</t>
+  </si>
+  <si>
+    <t>Sarcoma</t>
+  </si>
+  <si>
+    <t>Small Cell Lung Carcinoma</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma of Head and Neck</t>
+  </si>
+  <si>
+    <t>Squamous Intraepithelial Lesions of the Cervix</t>
+  </si>
+  <si>
+    <t>Stomach Neoplasms</t>
+  </si>
+  <si>
+    <t>Synovial Cyst</t>
+  </si>
+  <si>
+    <t>Testicular Neoplasms</t>
+  </si>
+  <si>
+    <t>Thoracic Neoplasms</t>
+  </si>
+  <si>
+    <t>Thyroid Neoplasms</t>
+  </si>
+  <si>
+    <t>Triple Negative Breast Neoplasms</t>
+  </si>
+  <si>
+    <t>Urinary Bladder Neoplasms</t>
+  </si>
+  <si>
+    <t>Urogenital Neoplasms</t>
+  </si>
+  <si>
+    <t>Urologic Neoplasms</t>
+  </si>
+  <si>
+    <t>Uterine Cervical Dysplasia</t>
+  </si>
+  <si>
+    <t>Uterine Cervical Neoplasms</t>
+  </si>
+  <si>
+    <t>Uterine Neoplasms</t>
+  </si>
+  <si>
+    <t>Cancers and Other Neoplasms  </t>
+  </si>
+  <si>
+    <t>Mukaan hakuun</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +1012,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,9 +1041,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -942,19 +1363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E35EA6-E935-814E-8FEE-4B9E21153A2D}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J196" sqref="J196"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -964,8 +1386,11 @@
       <c r="C1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -975,8 +1400,11 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>169</v>
       </c>
@@ -986,8 +1414,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>169</v>
       </c>
@@ -997,8 +1428,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -1008,8 +1442,11 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>169</v>
       </c>
@@ -1019,8 +1456,11 @@
       <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -1030,8 +1470,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -1041,8 +1484,11 @@
       <c r="C8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -1052,8 +1498,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>169</v>
       </c>
@@ -1063,8 +1512,11 @@
       <c r="C10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>169</v>
       </c>
@@ -1074,8 +1526,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>169</v>
       </c>
@@ -1085,8 +1540,11 @@
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
@@ -1096,8 +1554,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>169</v>
       </c>
@@ -1107,8 +1568,11 @@
       <c r="C14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>169</v>
       </c>
@@ -1118,8 +1582,11 @@
       <c r="C15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
@@ -1129,8 +1596,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
@@ -1140,8 +1610,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
@@ -1151,8 +1624,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>169</v>
       </c>
@@ -1162,8 +1638,11 @@
       <c r="C19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>169</v>
       </c>
@@ -1173,8 +1652,11 @@
       <c r="C20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>169</v>
       </c>
@@ -1184,8 +1666,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
@@ -1195,8 +1680,11 @@
       <c r="C22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>169</v>
       </c>
@@ -1206,8 +1694,11 @@
       <c r="C23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
@@ -1217,8 +1708,11 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
@@ -1228,8 +1722,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -1239,8 +1736,11 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
@@ -1250,8 +1750,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>169</v>
       </c>
@@ -1261,8 +1764,11 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
@@ -1272,8 +1778,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -1283,8 +1792,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
@@ -1294,8 +1806,11 @@
       <c r="C31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>169</v>
       </c>
@@ -1305,8 +1820,11 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>169</v>
       </c>
@@ -1316,8 +1834,11 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>169</v>
       </c>
@@ -1327,8 +1848,11 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>169</v>
       </c>
@@ -1338,8 +1862,11 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>169</v>
       </c>
@@ -1349,8 +1876,11 @@
       <c r="C36">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
@@ -1360,8 +1890,11 @@
       <c r="C37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>169</v>
       </c>
@@ -1371,8 +1904,11 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>169</v>
       </c>
@@ -1382,8 +1918,11 @@
       <c r="C39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -1393,8 +1932,11 @@
       <c r="C40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>169</v>
       </c>
@@ -1404,8 +1946,11 @@
       <c r="C41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -1415,8 +1960,11 @@
       <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -1426,8 +1974,11 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -1437,8 +1988,11 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>169</v>
       </c>
@@ -1448,8 +2002,11 @@
       <c r="C45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>169</v>
       </c>
@@ -1459,8 +2016,11 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
@@ -1470,8 +2030,11 @@
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -1481,8 +2044,11 @@
       <c r="C48">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
@@ -1492,8 +2058,11 @@
       <c r="C49">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>169</v>
       </c>
@@ -1503,8 +2072,11 @@
       <c r="C50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>169</v>
       </c>
@@ -1514,8 +2086,11 @@
       <c r="C51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
@@ -1525,8 +2100,11 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
@@ -1536,8 +2114,11 @@
       <c r="C53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>169</v>
       </c>
@@ -1547,8 +2128,11 @@
       <c r="C54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>169</v>
       </c>
@@ -1558,8 +2142,11 @@
       <c r="C55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -1569,8 +2156,11 @@
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -1580,8 +2170,11 @@
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
@@ -1591,8 +2184,11 @@
       <c r="C58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>169</v>
       </c>
@@ -1602,8 +2198,11 @@
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>170</v>
       </c>
@@ -1613,8 +2212,11 @@
       <c r="C60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>170</v>
       </c>
@@ -1624,8 +2226,11 @@
       <c r="C61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>170</v>
       </c>
@@ -1635,8 +2240,11 @@
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
@@ -1646,8 +2254,11 @@
       <c r="C63">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>170</v>
       </c>
@@ -1657,8 +2268,11 @@
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>170</v>
       </c>
@@ -1668,8 +2282,11 @@
       <c r="C65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>170</v>
       </c>
@@ -1679,8 +2296,11 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>170</v>
       </c>
@@ -1690,8 +2310,11 @@
       <c r="C67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>170</v>
       </c>
@@ -1701,8 +2324,11 @@
       <c r="C68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>170</v>
       </c>
@@ -1712,8 +2338,11 @@
       <c r="C69">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>170</v>
       </c>
@@ -1723,8 +2352,11 @@
       <c r="C70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>170</v>
       </c>
@@ -1734,8 +2366,11 @@
       <c r="C71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>170</v>
       </c>
@@ -1745,8 +2380,11 @@
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>170</v>
       </c>
@@ -1756,8 +2394,11 @@
       <c r="C73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
@@ -1767,8 +2408,11 @@
       <c r="C74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>170</v>
       </c>
@@ -1778,8 +2422,11 @@
       <c r="C75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>170</v>
       </c>
@@ -1789,8 +2436,11 @@
       <c r="C76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>170</v>
       </c>
@@ -1800,8 +2450,11 @@
       <c r="C77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
@@ -1811,8 +2464,11 @@
       <c r="C78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>170</v>
       </c>
@@ -1822,8 +2478,11 @@
       <c r="C79">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -1833,8 +2492,11 @@
       <c r="C80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>170</v>
       </c>
@@ -1844,8 +2506,11 @@
       <c r="C81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>170</v>
       </c>
@@ -1855,8 +2520,11 @@
       <c r="C82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>170</v>
       </c>
@@ -1866,8 +2534,11 @@
       <c r="C83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
@@ -1877,8 +2548,11 @@
       <c r="C84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>170</v>
       </c>
@@ -1888,8 +2562,11 @@
       <c r="C85">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -1899,8 +2576,11 @@
       <c r="C86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
@@ -1910,8 +2590,11 @@
       <c r="C87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>170</v>
       </c>
@@ -1921,8 +2604,11 @@
       <c r="C88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>170</v>
       </c>
@@ -1932,8 +2618,11 @@
       <c r="C89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>170</v>
       </c>
@@ -1943,8 +2632,11 @@
       <c r="C90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>170</v>
       </c>
@@ -1954,8 +2646,11 @@
       <c r="C91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>170</v>
       </c>
@@ -1965,8 +2660,11 @@
       <c r="C92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>170</v>
       </c>
@@ -1976,8 +2674,11 @@
       <c r="C93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>170</v>
       </c>
@@ -1987,8 +2688,11 @@
       <c r="C94">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>170</v>
       </c>
@@ -1998,8 +2702,11 @@
       <c r="C95">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>170</v>
       </c>
@@ -2009,8 +2716,11 @@
       <c r="C96">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>170</v>
       </c>
@@ -2020,8 +2730,11 @@
       <c r="C97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>170</v>
       </c>
@@ -2031,8 +2744,11 @@
       <c r="C98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>170</v>
       </c>
@@ -2042,8 +2758,11 @@
       <c r="C99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>170</v>
       </c>
@@ -2053,8 +2772,11 @@
       <c r="C100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>170</v>
       </c>
@@ -2064,8 +2786,11 @@
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
@@ -2075,8 +2800,11 @@
       <c r="C102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
@@ -2086,8 +2814,11 @@
       <c r="C103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -2097,8 +2828,11 @@
       <c r="C104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
@@ -2108,8 +2842,11 @@
       <c r="C105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>170</v>
       </c>
@@ -2119,8 +2856,11 @@
       <c r="C106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>170</v>
       </c>
@@ -2130,8 +2870,11 @@
       <c r="C107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>170</v>
       </c>
@@ -2141,8 +2884,11 @@
       <c r="C108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>170</v>
       </c>
@@ -2152,8 +2898,11 @@
       <c r="C109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>170</v>
       </c>
@@ -2163,8 +2912,11 @@
       <c r="C110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>170</v>
       </c>
@@ -2174,8 +2926,11 @@
       <c r="C111">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>170</v>
       </c>
@@ -2185,8 +2940,11 @@
       <c r="C112">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>170</v>
       </c>
@@ -2196,8 +2954,11 @@
       <c r="C113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>170</v>
       </c>
@@ -2207,8 +2968,11 @@
       <c r="C114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>170</v>
       </c>
@@ -2218,8 +2982,11 @@
       <c r="C115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>170</v>
       </c>
@@ -2229,8 +2996,11 @@
       <c r="C116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>170</v>
       </c>
@@ -2240,8 +3010,11 @@
       <c r="C117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>170</v>
       </c>
@@ -2251,8 +3024,11 @@
       <c r="C118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>170</v>
       </c>
@@ -2262,8 +3038,11 @@
       <c r="C119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -2273,8 +3052,11 @@
       <c r="C120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>170</v>
       </c>
@@ -2284,8 +3066,11 @@
       <c r="C121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>170</v>
       </c>
@@ -2295,8 +3080,11 @@
       <c r="C122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>170</v>
       </c>
@@ -2306,8 +3094,11 @@
       <c r="C123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>170</v>
       </c>
@@ -2317,8 +3108,11 @@
       <c r="C124">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>170</v>
       </c>
@@ -2328,8 +3122,11 @@
       <c r="C125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>170</v>
       </c>
@@ -2339,8 +3136,11 @@
       <c r="C126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>170</v>
       </c>
@@ -2350,8 +3150,11 @@
       <c r="C127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>170</v>
       </c>
@@ -2361,8 +3164,11 @@
       <c r="C128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>170</v>
       </c>
@@ -2372,8 +3178,11 @@
       <c r="C129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>170</v>
       </c>
@@ -2383,8 +3192,11 @@
       <c r="C130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>170</v>
       </c>
@@ -2394,8 +3206,11 @@
       <c r="C131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>170</v>
       </c>
@@ -2405,8 +3220,11 @@
       <c r="C132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>170</v>
       </c>
@@ -2416,8 +3234,11 @@
       <c r="C133">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>170</v>
       </c>
@@ -2427,8 +3248,11 @@
       <c r="C134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>170</v>
       </c>
@@ -2438,8 +3262,11 @@
       <c r="C135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>170</v>
       </c>
@@ -2449,8 +3276,11 @@
       <c r="C136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>170</v>
       </c>
@@ -2460,8 +3290,11 @@
       <c r="C137">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>170</v>
       </c>
@@ -2471,8 +3304,11 @@
       <c r="C138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>170</v>
       </c>
@@ -2482,8 +3318,11 @@
       <c r="C139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>170</v>
       </c>
@@ -2493,8 +3332,11 @@
       <c r="C140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>170</v>
       </c>
@@ -2504,8 +3346,11 @@
       <c r="C141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>170</v>
       </c>
@@ -2515,8 +3360,11 @@
       <c r="C142">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>170</v>
       </c>
@@ -2526,8 +3374,11 @@
       <c r="C143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>170</v>
       </c>
@@ -2537,8 +3388,11 @@
       <c r="C144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>170</v>
       </c>
@@ -2548,8 +3402,11 @@
       <c r="C145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>170</v>
       </c>
@@ -2559,8 +3416,11 @@
       <c r="C146">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>170</v>
       </c>
@@ -2570,8 +3430,11 @@
       <c r="C147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>170</v>
       </c>
@@ -2581,8 +3444,11 @@
       <c r="C148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>170</v>
       </c>
@@ -2592,8 +3458,11 @@
       <c r="C149">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>170</v>
       </c>
@@ -2603,8 +3472,11 @@
       <c r="C150">
         <v>41</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>170</v>
       </c>
@@ -2614,8 +3486,11 @@
       <c r="C151">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>170</v>
       </c>
@@ -2625,8 +3500,11 @@
       <c r="C152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
@@ -2636,8 +3514,11 @@
       <c r="C153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -2647,8 +3528,11 @@
       <c r="C154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>170</v>
       </c>
@@ -2658,8 +3542,11 @@
       <c r="C155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>170</v>
       </c>
@@ -2669,8 +3556,11 @@
       <c r="C156">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>170</v>
       </c>
@@ -2680,8 +3570,11 @@
       <c r="C157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
@@ -2691,8 +3584,11 @@
       <c r="C158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>170</v>
       </c>
@@ -2702,8 +3598,11 @@
       <c r="C159">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>170</v>
       </c>
@@ -2713,8 +3612,11 @@
       <c r="C160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>170</v>
       </c>
@@ -2724,8 +3626,11 @@
       <c r="C161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>170</v>
       </c>
@@ -2735,8 +3640,11 @@
       <c r="C162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>170</v>
       </c>
@@ -2746,8 +3654,11 @@
       <c r="C163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>170</v>
       </c>
@@ -2757,8 +3668,11 @@
       <c r="C164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
@@ -2768,8 +3682,11 @@
       <c r="C165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
@@ -2779,8 +3696,11 @@
       <c r="C166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -2790,8 +3710,11 @@
       <c r="C167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -2801,8 +3724,11 @@
       <c r="C168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -2812,8 +3738,11 @@
       <c r="C169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
@@ -2823,8 +3752,11 @@
       <c r="C170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -2834,8 +3766,11 @@
       <c r="C171">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -2845,8 +3780,11 @@
       <c r="C172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
@@ -2856,8 +3794,11 @@
       <c r="C173">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>170</v>
       </c>
@@ -2867,8 +3808,11 @@
       <c r="C174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>170</v>
       </c>
@@ -2878,8 +3822,11 @@
       <c r="C175">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>170</v>
       </c>
@@ -2889,8 +3836,11 @@
       <c r="C176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>170</v>
       </c>
@@ -2900,8 +3850,11 @@
       <c r="C177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>170</v>
       </c>
@@ -2911,8 +3864,11 @@
       <c r="C178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>170</v>
       </c>
@@ -2922,8 +3878,11 @@
       <c r="C179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>170</v>
       </c>
@@ -2933,8 +3892,11 @@
       <c r="C180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>170</v>
       </c>
@@ -2944,8 +3906,11 @@
       <c r="C181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>170</v>
       </c>
@@ -2955,8 +3920,11 @@
       <c r="C182">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>170</v>
       </c>
@@ -2966,8 +3934,11 @@
       <c r="C183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>170</v>
       </c>
@@ -2977,8 +3948,11 @@
       <c r="C184">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>170</v>
       </c>
@@ -2988,8 +3962,11 @@
       <c r="C185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>170</v>
       </c>
@@ -2999,8 +3976,11 @@
       <c r="C186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>170</v>
       </c>
@@ -3010,8 +3990,11 @@
       <c r="C187">
         <v>11</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>170</v>
       </c>
@@ -3021,8 +4004,11 @@
       <c r="C188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>170</v>
       </c>
@@ -3032,8 +4018,11 @@
       <c r="C189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>181</v>
       </c>
@@ -3043,8 +4032,11 @@
       <c r="C190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>181</v>
       </c>
@@ -3054,8 +4046,11 @@
       <c r="C191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>181</v>
       </c>
@@ -3065,8 +4060,11 @@
       <c r="C192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>181</v>
       </c>
@@ -3076,8 +4074,11 @@
       <c r="C193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>181</v>
       </c>
@@ -3087,8 +4088,11 @@
       <c r="C194">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>181</v>
       </c>
@@ -3098,8 +4102,11 @@
       <c r="C195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>181</v>
       </c>
@@ -3109,8 +4116,11 @@
       <c r="C196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>181</v>
       </c>
@@ -3120,8 +4130,11 @@
       <c r="C197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>181</v>
       </c>
@@ -3131,8 +4144,11 @@
       <c r="C198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>181</v>
       </c>
@@ -3142,8 +4158,11 @@
       <c r="C199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>181</v>
       </c>
@@ -3153,8 +4172,11 @@
       <c r="C200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>181</v>
       </c>
@@ -3163,6 +4185,1955 @@
       </c>
       <c r="C201">
         <v>4</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C202" s="2">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C203" s="2">
+        <v>22</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C207" s="2">
+        <v>3</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="2">
+        <v>4</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C212" s="2">
+        <v>24</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C213" s="2">
+        <v>11</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C215" s="2">
+        <v>56</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C216" s="2">
+        <v>3</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C218" s="2">
+        <v>11</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C219" s="2">
+        <v>2</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C220" s="2">
+        <v>2</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C221" s="2">
+        <v>2</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C222" s="2">
+        <v>15</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C223" s="2">
+        <v>17</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C224" s="2">
+        <v>11</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C226" s="2">
+        <v>5</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C227" s="2">
+        <v>3</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C228" s="2">
+        <v>3</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C229" s="2">
+        <v>3</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C230" s="2">
+        <v>5</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C231" s="2">
+        <v>15</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C233" s="2">
+        <v>2</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C234" s="2">
+        <v>26</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C236" s="2">
+        <v>21</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C237" s="2">
+        <v>3</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C239" s="2">
+        <v>6</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C242" s="2">
+        <v>2</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C244" s="2">
+        <v>26</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C245" s="2">
+        <v>2</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C246" s="2">
+        <v>19</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C247" s="2">
+        <v>38</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C248" s="2">
+        <v>3</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C249" s="2">
+        <v>4</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C250" s="2">
+        <v>7</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C252" s="2">
+        <v>2</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C254" s="2">
+        <v>1</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C255" s="2">
+        <v>15</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C256" s="2">
+        <v>11</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C257" s="2">
+        <v>4</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C258" s="2">
+        <v>1</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C259" s="2">
+        <v>35</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C260" s="2">
+        <v>5</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C261" s="2">
+        <v>5</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C262" s="2">
+        <v>17</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C263" s="2">
+        <v>4</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C264" s="2">
+        <v>17</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C265" s="2">
+        <v>12</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C267" s="2">
+        <v>1</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C268" s="2">
+        <v>1</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C269" s="2">
+        <v>1</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C270" s="2">
+        <v>1</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C271" s="2">
+        <v>1</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C272" s="2">
+        <v>2</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C273" s="2">
+        <v>16</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C274" s="2">
+        <v>29</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C275" s="2">
+        <v>9</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C276" s="2">
+        <v>1</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C277" s="2">
+        <v>5</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C278" s="2">
+        <v>6</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C279" s="2">
+        <v>2</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C280" s="2">
+        <v>17</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C281" s="2">
+        <v>11</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C282" s="2">
+        <v>2</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C283" s="2">
+        <v>7</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C284" s="2">
+        <v>4</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C285" s="2">
+        <v>19</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C286" s="2">
+        <v>4</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C287" s="2">
+        <v>119</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C288" s="2">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C289" s="2">
+        <v>1</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C290" s="2">
+        <v>10</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C291" s="2">
+        <v>6</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C292" s="2">
+        <v>1</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C293" s="2">
+        <v>18</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C294" s="2">
+        <v>45</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C295" s="2">
+        <v>1</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C296" s="2">
+        <v>18</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C297" s="2">
+        <v>4</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C298" s="2">
+        <v>7</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C299" s="2">
+        <v>2</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C300" s="2">
+        <v>2</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C301" s="2">
+        <v>1</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C302" s="2">
+        <v>10</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C303" s="2">
+        <v>3</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C304" s="2">
+        <v>1</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C305" s="2">
+        <v>17</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C306" s="2">
+        <v>17</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C307" s="2">
+        <v>13</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C308" s="2">
+        <v>10</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C309" s="2">
+        <v>10</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C310" s="2">
+        <v>10</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C311" s="2">
+        <v>1</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C312" s="2">
+        <v>2</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C313" s="2">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C314" s="2">
+        <v>17</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C315" s="2">
+        <v>8</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C316" s="2">
+        <v>1</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C317" s="2">
+        <v>2</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C318" s="2">
+        <v>6</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C319" s="2">
+        <v>11</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C320" s="2">
+        <v>2</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C321" s="2">
+        <v>7</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C322" s="2">
+        <v>39</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C323" s="2">
+        <v>6</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C324" s="2">
+        <v>13</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C325" s="2">
+        <v>3</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C326" s="2">
+        <v>2</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C327" s="2">
+        <v>2</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C328" s="2">
+        <v>1</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C329" s="2">
+        <v>2</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C330" s="2">
+        <v>2</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C331" s="2">
+        <v>1</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C332" s="2">
+        <v>14</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C333" s="2">
+        <v>1</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C334" s="2">
+        <v>4</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C335" s="2">
+        <v>11</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C336" s="2">
+        <v>75</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C337" s="2">
+        <v>19</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C339" s="2">
+        <v>1</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C340" s="2">
+        <v>4</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3373,6 +6344,147 @@
     <hyperlink ref="B201" r:id="rId204" tooltip="Search for Substance-Related Disorders" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Substance-Related+Disorders%22&amp;cntry=FI" xr:uid="{E9D98501-628B-134E-A0F6-78F0C983726A}"/>
     <hyperlink ref="A190" r:id="rId205" tooltip="Search for Substance Related Disorders" display="https://clinicaltrials.gov/ct2/results/browse?recrs=abdf&amp;cntry=FI&amp;brwse=cond_cat_BC25" xr:uid="{6EA27542-B082-AB4E-B237-FD1BF3B2866A}"/>
     <hyperlink ref="A191:A201" r:id="rId206" tooltip="Search for Substance Related Disorders" display="https://clinicaltrials.gov/ct2/results/browse?recrs=abdf&amp;cntry=FI&amp;brwse=cond_cat_BC25" xr:uid="{17C10365-28D9-1B41-9278-33E387804C05}"/>
+    <hyperlink ref="B202" r:id="rId207" tooltip="Search for Abdominal Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Abdominal+Neoplasms%22&amp;cntry=FI" xr:uid="{B0056783-B78D-A043-A946-BD0460D322D1}"/>
+    <hyperlink ref="B203" r:id="rId208" tooltip="Search for Adenocarcinoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Adenocarcinoma%22&amp;cntry=FI" xr:uid="{660A003D-BF99-5A4D-8D31-97E27888448E}"/>
+    <hyperlink ref="B204" r:id="rId209" tooltip="Search for Adenocarcinoma in Situ" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Adenocarcinoma+in+Situ%22&amp;cntry=FI" xr:uid="{AE4BA90A-6216-534B-8DE3-6A9EA80D44F8}"/>
+    <hyperlink ref="B205" r:id="rId210" tooltip="Search for Adenoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Adenoma%22&amp;cntry=FI" xr:uid="{3294D739-D257-1441-A938-06266D8F6731}"/>
+    <hyperlink ref="B206" r:id="rId211" tooltip="Search for Angiokeratoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Angiokeratoma%22&amp;cntry=FI" xr:uid="{5A553F9A-34B6-6A48-9B5F-46AE9B4692A7}"/>
+    <hyperlink ref="B207" r:id="rId212" tooltip="Search for Astrocytoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Astrocytoma%22&amp;cntry=FI" xr:uid="{DF537799-FB14-D44F-B779-D36BC39B7187}"/>
+    <hyperlink ref="B208" r:id="rId213" tooltip="Search for Bone Cysts" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Bone+Cysts%22&amp;cntry=FI" xr:uid="{9CFC4E97-4BF3-664F-BB69-8A1C88D457DB}"/>
+    <hyperlink ref="B209" r:id="rId214" tooltip="Search for Bone Marrow Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Bone+Marrow+Neoplasms%22&amp;cntry=FI" xr:uid="{73EDB17E-B199-2F46-B7A2-07EF4CB73B9D}"/>
+    <hyperlink ref="B210" r:id="rId215" tooltip="Search for Bone Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Bone+Neoplasms%22&amp;cntry=FI" xr:uid="{239B20AC-CAF6-1343-982D-1B3920CC7C4F}"/>
+    <hyperlink ref="B211" r:id="rId216" tooltip="Search for Brain Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Brain+Neoplasms%22&amp;cntry=FI" xr:uid="{5B98B3FB-DD5B-FC49-8E50-CF5CD1BD56B6}"/>
+    <hyperlink ref="B212" r:id="rId217" tooltip="Search for Breast Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Breast+Neoplasms%22&amp;cntry=FI" xr:uid="{4B2B40A3-55E5-9449-B8B1-9C4B6A3CAE42}"/>
+    <hyperlink ref="B213" r:id="rId218" tooltip="Search for Bronchial Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Bronchial+Neoplasms%22&amp;cntry=FI" xr:uid="{EBE21768-FA3B-CB44-B162-5F8CD4260DD4}"/>
+    <hyperlink ref="B214" r:id="rId219" tooltip="Search for Burkitt Lymphoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Burkitt+Lymphoma%22&amp;cntry=FI" xr:uid="{6C265311-678D-3D43-B4D5-E1F4B29B1A17}"/>
+    <hyperlink ref="B215" r:id="rId220" tooltip="Search for Carcinoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%22&amp;cntry=FI" xr:uid="{FF2488A5-74B3-7F43-A3C0-C7BE79E9182B}"/>
+    <hyperlink ref="B216" r:id="rId221" tooltip="Search for Carcinoma in Situ" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma+in+Situ%22&amp;cntry=FI" xr:uid="{880E99C9-CFEC-6445-B1F1-B0ACAF5CBFB9}"/>
+    <hyperlink ref="B217" r:id="rId222" tooltip="Search for Carcinoma, Basal Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Basal+Cell%22&amp;cntry=FI" xr:uid="{75CED765-9B5A-0447-A4C2-74E5B2B846A9}"/>
+    <hyperlink ref="B218" r:id="rId223" tooltip="Search for Carcinoma, Bronchogenic" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Bronchogenic%22&amp;cntry=FI" xr:uid="{AC2E6798-9EA0-F245-B584-69D1BA56A0A1}"/>
+    <hyperlink ref="B219" r:id="rId224" tooltip="Search for Carcinoma, Hepatocellular" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Hepatocellular%22&amp;cntry=FI" xr:uid="{CE391FFD-A071-2A47-9D09-EB9E0D6509EC}"/>
+    <hyperlink ref="B220" r:id="rId225" tooltip="Search for Carcinoma, Merkel Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Merkel+Cell%22&amp;cntry=FI" xr:uid="{1A0AB423-D752-E745-9B91-0DAC9D6F4C94}"/>
+    <hyperlink ref="B221" r:id="rId226" tooltip="Search for Carcinoma, Neuroendocrine" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Neuroendocrine%22&amp;cntry=FI" xr:uid="{F3CA6566-1E32-FD40-B63D-9E0E9915B640}"/>
+    <hyperlink ref="B222" r:id="rId227" tooltip="Search for Carcinoma, Non-Small-Cell Lung" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Non-Small-Cell+Lung%22&amp;cntry=FI" xr:uid="{4841A653-CC66-EA47-BE06-69A7276D78F6}"/>
+    <hyperlink ref="B223" r:id="rId228" tooltip="Search for Carcinoma, Ovarian Epithelial" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Ovarian+Epithelial%22&amp;cntry=FI" xr:uid="{23466CAB-707B-284B-B92F-847002A68083}"/>
+    <hyperlink ref="B224" r:id="rId229" tooltip="Search for Carcinoma, Renal Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Renal+Cell%22&amp;cntry=FI" xr:uid="{C9A9A692-0667-DF46-9F06-F60615C6ACD5}"/>
+    <hyperlink ref="B225" r:id="rId230" tooltip="Search for Carcinoma, Squamous Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Squamous+Cell%22&amp;cntry=FI" xr:uid="{192D22E1-D224-174D-B59B-46CCA439C0AB}"/>
+    <hyperlink ref="B226" r:id="rId231" tooltip="Search for Carcinoma, Transitional Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Carcinoma%2C+Transitional+Cell%22&amp;cntry=FI" xr:uid="{1468DCAD-6E25-E440-9595-F077992B5A32}"/>
+    <hyperlink ref="B227" r:id="rId232" tooltip="Search for Central Nervous System Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Central+Nervous+System+Neoplasms%22&amp;cntry=FI" xr:uid="{A9DC4E0B-B256-0645-ADC2-A516FA1DA1FF}"/>
+    <hyperlink ref="B228" r:id="rId233" tooltip="Search for Cervical Intraepithelial Neoplasia" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Cervical+Intraepithelial+Neoplasia%22&amp;cntry=FI" xr:uid="{80EB7408-72EF-7742-BE4B-77AA50E985E4}"/>
+    <hyperlink ref="B229" r:id="rId234" tooltip="Search for Cholangiocarcinoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Cholangiocarcinoma%22&amp;cntry=FI" xr:uid="{E8891591-F478-0A45-A1BB-F875DFCC1D74}"/>
+    <hyperlink ref="B230" r:id="rId235" tooltip="Search for Colonic Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Colonic+Neoplasms%22&amp;cntry=FI" xr:uid="{D815FAF4-4FA3-5040-AA35-92F8B9CB4D4B}"/>
+    <hyperlink ref="B231" r:id="rId236" tooltip="Search for Colorectal Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Colorectal+Neoplasms%22&amp;cntry=FI" xr:uid="{6DBF1E4E-57FE-254B-B69F-B91AFDB226B6}"/>
+    <hyperlink ref="B232" r:id="rId237" tooltip="Search for Cystadenocarcinoma, Serous" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Cystadenocarcinoma%2C+Serous%22&amp;cntry=FI" xr:uid="{E63DCCA7-2117-C840-B43B-8DC43B34D513}"/>
+    <hyperlink ref="B233" r:id="rId238" tooltip="Search for Cysts" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Cysts%22&amp;cntry=FI" xr:uid="{73EEF2AC-F0BA-5C46-A49C-B209D26AC33A}"/>
+    <hyperlink ref="B234" r:id="rId239" tooltip="Search for Digestive System Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Digestive+System+Neoplasms%22&amp;cntry=FI" xr:uid="{C2E9DA4B-A864-DE48-93EA-7E117DC613AA}"/>
+    <hyperlink ref="B235" r:id="rId240" tooltip="Search for Dupuytren Contracture" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Dupuytren+Contracture%22&amp;cntry=FI" xr:uid="{F32C230B-8730-3646-96EA-D200B8C4FCA5}"/>
+    <hyperlink ref="B236" r:id="rId241" tooltip="Search for Endocrine Gland Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Endocrine+Gland+Neoplasms%22&amp;cntry=FI" xr:uid="{350A2458-5C8B-D442-A0BB-F91BBE51CB23}"/>
+    <hyperlink ref="B237" r:id="rId242" tooltip="Search for Endometrial Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Endometrial+Neoplasms%22&amp;cntry=FI" xr:uid="{AF5443E3-AB63-C04A-A293-3414C937E29A}"/>
+    <hyperlink ref="B238" r:id="rId243" tooltip="Search for Esophageal Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Esophageal+Neoplasms%22&amp;cntry=FI" xr:uid="{92463E22-1C02-D447-9125-E26CE47616FE}"/>
+    <hyperlink ref="B239" r:id="rId244" tooltip="Search for Fallopian Tube Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Fallopian+Tube+Neoplasms%22&amp;cntry=FI" xr:uid="{E9C074B0-18EA-7742-ACA0-49142D712355}"/>
+    <hyperlink ref="B240" r:id="rId245" tooltip="Search for Fibroma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Fibroma%22&amp;cntry=FI" xr:uid="{908F398E-8A59-4047-B8DD-0BFCF093D4C1}"/>
+    <hyperlink ref="B241" r:id="rId246" tooltip="Search for Ganglioglioma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Ganglioglioma%22&amp;cntry=FI" xr:uid="{4295A803-480E-2543-95CD-5EE5EE2B4ACD}"/>
+    <hyperlink ref="B242" r:id="rId247" tooltip="Search for Ganglion Cysts" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Ganglion+Cysts%22&amp;cntry=FI" xr:uid="{137F3DEE-640C-1745-9B96-7013CCB11C95}"/>
+    <hyperlink ref="B243" r:id="rId248" tooltip="Search for Ganglioneuroma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Ganglioneuroma%22&amp;cntry=FI" xr:uid="{C4EB17B9-1BDE-1B45-8A31-4A06A56D6EA9}"/>
+    <hyperlink ref="B244" r:id="rId249" tooltip="Search for Gastrointestinal Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Gastrointestinal+Neoplasms%22&amp;cntry=FI" xr:uid="{9F179C4E-D2D1-2149-8F10-5C7F7F505AF6}"/>
+    <hyperlink ref="B245" r:id="rId250" tooltip="Search for Gastrointestinal Stromal Tumors" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Gastrointestinal+Stromal+Tumors%22&amp;cntry=FI" xr:uid="{3A5A70C6-6FDC-D34E-BE82-452938CB394D}"/>
+    <hyperlink ref="B246" r:id="rId251" tooltip="Search for Genital Neoplasms, Female" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Genital+Neoplasms%2C+Female%22&amp;cntry=FI" xr:uid="{F2FD9347-9FFA-9F45-875D-A5E68826B761}"/>
+    <hyperlink ref="B247" r:id="rId252" tooltip="Search for Genital Neoplasms, Male" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Genital+Neoplasms%2C+Male%22&amp;cntry=FI" xr:uid="{4F16F84C-A17B-C74D-A0E5-AC54DB3355BF}"/>
+    <hyperlink ref="B248" r:id="rId253" tooltip="Search for Glioblastoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Glioblastoma%22&amp;cntry=FI" xr:uid="{EE2A2FA3-834E-CA4A-9B6D-A8ED3307E69F}"/>
+    <hyperlink ref="B249" r:id="rId254" tooltip="Search for Glioma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Glioma%22&amp;cntry=FI" xr:uid="{BA223345-7518-734A-883A-2E7932A28A26}"/>
+    <hyperlink ref="B250" r:id="rId255" tooltip="Search for Head and Neck Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Head+and+Neck+Neoplasms%22&amp;cntry=FI" xr:uid="{E43F1358-C1FB-6246-AF20-5CCCA87F528F}"/>
+    <hyperlink ref="B251" r:id="rId256" tooltip="Search for Heart Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Heart+Neoplasms%22&amp;cntry=FI" xr:uid="{28C3FA13-B19E-FA4B-90B3-01CE8433B19A}"/>
+    <hyperlink ref="B252" r:id="rId257" tooltip="Search for Hematologic Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Hematologic+Neoplasms%22&amp;cntry=FI" xr:uid="{A03CB07C-06E5-9046-A976-616B1BF3C4CF}"/>
+    <hyperlink ref="B253" r:id="rId258" tooltip="Search for Histiocytoma, Malignant Fibrous" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Histiocytoma%2C+Malignant+Fibrous%22&amp;cntry=FI" xr:uid="{AB49A374-F3FC-1347-A3E3-6E38A39B4B28}"/>
+    <hyperlink ref="B254" r:id="rId259" tooltip="Search for Infratentorial Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Infratentorial+Neoplasms%22&amp;cntry=FI" xr:uid="{88560928-9325-5D49-8579-99220BCF2EE7}"/>
+    <hyperlink ref="B255" r:id="rId260" tooltip="Search for Intestinal Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Intestinal+Neoplasms%22&amp;cntry=FI" xr:uid="{B8D0E58E-3059-1744-AD4F-E965D1239746}"/>
+    <hyperlink ref="B256" r:id="rId261" tooltip="Search for Kidney Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Kidney+Neoplasms%22&amp;cntry=FI" xr:uid="{5ED78E5A-5CD6-714F-89B2-7862988985FF}"/>
+    <hyperlink ref="B257" r:id="rId262" tooltip="Search for Leiomyoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leiomyoma%22&amp;cntry=FI" xr:uid="{13A09658-5FF2-5A44-BD71-6C59A42A1786}"/>
+    <hyperlink ref="B258" r:id="rId263" tooltip="Search for Leiomyosarcoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leiomyosarcoma%22&amp;cntry=FI" xr:uid="{B89B89C7-77FA-1F4F-B392-4E10DAFB4583}"/>
+    <hyperlink ref="B259" r:id="rId264" tooltip="Search for Leukemia" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%22&amp;cntry=FI" xr:uid="{C3EFFDCD-E663-8741-84A0-1AADC8283BAC}"/>
+    <hyperlink ref="B260" r:id="rId265" tooltip="Search for Leukemia, B-Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+B-Cell%22&amp;cntry=FI" xr:uid="{3BA43336-E53A-4146-8117-EA01026D0BB8}"/>
+    <hyperlink ref="B261" r:id="rId266" tooltip="Search for Leukemia, Lymphocytic, Chronic, B-Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Lymphocytic%2C+Chronic%2C+B-Cell%22&amp;cntry=FI" xr:uid="{3EC1293D-60A1-8941-9B6B-9BBB162996E2}"/>
+    <hyperlink ref="B262" r:id="rId267" tooltip="Search for Leukemia, Lymphoid" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Lymphoid%22&amp;cntry=FI" xr:uid="{97E1DAF2-B5BE-D440-B5EB-A4963DF9B177}"/>
+    <hyperlink ref="B263" r:id="rId268" tooltip="Search for Leukemia, Myelogenous, Chronic, BCR-ABL Positive" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Myelogenous%2C+Chronic%2C+BCR-ABL+Positive%22&amp;cntry=FI" xr:uid="{692C8A89-D8EF-6047-88AD-66BD2C7DECAA}"/>
+    <hyperlink ref="B264" r:id="rId269" tooltip="Search for Leukemia, Myeloid" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Myeloid%22&amp;cntry=FI" xr:uid="{6B8D94B8-AB41-574C-A11A-E0A510DFF83D}"/>
+    <hyperlink ref="B265" r:id="rId270" tooltip="Search for Leukemia, Myeloid, Acute" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Myeloid%2C+Acute%22&amp;cntry=FI" xr:uid="{A3E099F7-8EC8-5E4D-837B-B46D4C5DA404}"/>
+    <hyperlink ref="B266" r:id="rId271" tooltip="Search for Leukemia, Myelomonocytic, Chronic" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Myelomonocytic%2C+Chronic%22&amp;cntry=FI" xr:uid="{8745B56A-5CCA-9F4F-AECF-A1D24C413C60}"/>
+    <hyperlink ref="B267" r:id="rId272" tooltip="Search for Leukemia, Myelomonocytic, Juvenile" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Myelomonocytic%2C+Juvenile%22&amp;cntry=FI" xr:uid="{DC704AB7-7600-F548-83A2-9A34F472F08A}"/>
+    <hyperlink ref="B268" r:id="rId273" tooltip="Search for Leukemia, Prolymphocytic" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Prolymphocytic%22&amp;cntry=FI" xr:uid="{4358D2B3-8472-334C-B7E0-7F5A890022EF}"/>
+    <hyperlink ref="B269" r:id="rId274" tooltip="Search for Leukemia, Prolymphocytic, T-Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+Prolymphocytic%2C+T-Cell%22&amp;cntry=FI" xr:uid="{0E67AE83-F86D-6A49-AAFD-AEE297E51524}"/>
+    <hyperlink ref="B270" r:id="rId275" tooltip="Search for Leukemia, T-Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Leukemia%2C+T-Cell%22&amp;cntry=FI" xr:uid="{5BECBBBF-53B3-D24E-B125-7A036CB35EA5}"/>
+    <hyperlink ref="B271" r:id="rId276" tooltip="Search for Liposarcoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Liposarcoma%22&amp;cntry=FI" xr:uid="{FDEE1E56-4D09-F24A-A60E-579F000DDA23}"/>
+    <hyperlink ref="B272" r:id="rId277" tooltip="Search for Liver Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Liver+Neoplasms%22&amp;cntry=FI" xr:uid="{72B76FDC-789C-6B4B-BF41-D3F70B3ED295}"/>
+    <hyperlink ref="B273" r:id="rId278" tooltip="Search for Lung Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lung+Neoplasms%22&amp;cntry=FI" xr:uid="{6D60CA98-B1D0-BD4A-A717-1AA8DBFA4AF8}"/>
+    <hyperlink ref="B274" r:id="rId279" tooltip="Search for Lymphoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lymphoma%22&amp;cntry=FI" xr:uid="{3DD09AF0-FD4D-C649-AC4F-4C633A347DA6}"/>
+    <hyperlink ref="B275" r:id="rId280" tooltip="Search for Lymphoma, B-Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lymphoma%2C+B-Cell%22&amp;cntry=FI" xr:uid="{87CD259C-6B69-7F4B-801C-CC954A3EE9EC}"/>
+    <hyperlink ref="B276" r:id="rId281" tooltip="Search for Lymphoma, B-Cell, Marginal Zone" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lymphoma%2C+B-Cell%2C+Marginal+Zone%22&amp;cntry=FI" xr:uid="{7B3BF421-5445-6348-8136-32C047A1E597}"/>
+    <hyperlink ref="B277" r:id="rId282" tooltip="Search for Lymphoma, Follicular" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lymphoma%2C+Follicular%22&amp;cntry=FI" xr:uid="{C98C57A3-49B3-A040-AC3B-74DC67B96AFC}"/>
+    <hyperlink ref="B278" r:id="rId283" tooltip="Search for Lymphoma, Large B-Cell, Diffuse" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lymphoma%2C+Large+B-Cell%2C+Diffuse%22&amp;cntry=FI" xr:uid="{9DA32FB7-62B2-3D4B-810D-CC9B1A31727C}"/>
+    <hyperlink ref="B279" r:id="rId284" tooltip="Search for Lymphoma, Mantle-Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lymphoma%2C+Mantle-Cell%22&amp;cntry=FI" xr:uid="{E478EBFB-E928-BF49-9D4E-AD44810E3E7C}"/>
+    <hyperlink ref="B280" r:id="rId285" tooltip="Search for Lymphoma, Non-Hodgkin" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Lymphoma%2C+Non-Hodgkin%22&amp;cntry=FI" xr:uid="{A721691A-6745-C44C-B3C9-27712196A684}"/>
+    <hyperlink ref="B281" r:id="rId286" tooltip="Search for Melanoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Melanoma%22&amp;cntry=FI" xr:uid="{7A35220E-8BCE-6B4A-B327-4CA9D0576B47}"/>
+    <hyperlink ref="B282" r:id="rId287" tooltip="Search for Mesothelioma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Mesothelioma%22&amp;cntry=FI" xr:uid="{0CE63E66-5913-B84D-93AE-29F03964C92A}"/>
+    <hyperlink ref="B283" r:id="rId288" tooltip="Search for Multiple Myeloma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Multiple+Myeloma%22&amp;cntry=FI" xr:uid="{39174D51-76BE-D94B-94B3-45FB395CF704}"/>
+    <hyperlink ref="B284" r:id="rId289" tooltip="Search for Myofibroma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Myofibroma%22&amp;cntry=FI" xr:uid="{4AF4CDC6-F88E-AE4F-978B-35A93D245ABB}"/>
+    <hyperlink ref="B285" r:id="rId290" tooltip="Search for Neoplasm Metastasis" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasm+Metastasis%22&amp;cntry=FI" xr:uid="{8DFF4025-3452-834C-A69C-C31CB5308A63}"/>
+    <hyperlink ref="B286" r:id="rId291" tooltip="Search for Neoplasm, Residual" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasm%2C+Residual%22&amp;cntry=FI" xr:uid="{EBB96531-0C70-1D42-B411-1065771EEDBF}"/>
+    <hyperlink ref="B287" r:id="rId292" tooltip="Search for Neoplasms by Histologic Type" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms+by+Histologic+Type%22&amp;cntry=FI" xr:uid="{06487749-34CC-F247-A2CB-15BFA7F1A52B}"/>
+    <hyperlink ref="B288" r:id="rId293" tooltip="Search for Neoplasms, Basal Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Basal+Cell%22&amp;cntry=FI" xr:uid="{A95F65C6-BB56-6447-AF68-4A35655EED22}"/>
+    <hyperlink ref="B289" r:id="rId294" tooltip="Search for Neoplasms, Bone Tissue" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Bone+Tissue%22&amp;cntry=FI" xr:uid="{0A016D65-0BF5-BB43-A54B-BC54D8020795}"/>
+    <hyperlink ref="B290" r:id="rId295" tooltip="Search for Neoplasms, Connective and Soft Tissue" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Connective+and+Soft+Tissue%22&amp;cntry=FI" xr:uid="{781CC5FF-C697-D845-A96B-39E8DFDC3424}"/>
+    <hyperlink ref="B291" r:id="rId296" tooltip="Search for Neoplasms, Connective Tissue" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Connective+Tissue%22&amp;cntry=FI" xr:uid="{682A6199-2E5E-7A48-88C5-12C2307CF15F}"/>
+    <hyperlink ref="B292" r:id="rId297" tooltip="Search for Neoplasms, Fibrous Tissue" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Fibrous+Tissue%22&amp;cntry=FI" xr:uid="{7AF86D83-894C-1441-9D7B-785F9649E181}"/>
+    <hyperlink ref="B293" r:id="rId298" tooltip="Search for Neoplasms, Germ Cell and Embryonal" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Germ+Cell+and+Embryonal%22&amp;cntry=FI" xr:uid="{BAC5A59A-04C8-864A-AABA-05E00CC4B6B4}"/>
+    <hyperlink ref="B294" r:id="rId299" tooltip="Search for Neoplasms, Glandular and Epithelial" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Glandular+and+Epithelial%22&amp;cntry=FI" xr:uid="{585F8824-20EC-8F45-89F0-3B5CD407CD0B}"/>
+    <hyperlink ref="B295" r:id="rId300" tooltip="Search for Neoplasms, Mesothelial" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Mesothelial%22&amp;cntry=FI" xr:uid="{F8B00E6F-3B2E-4E4C-BDA6-CDC2CB982A3F}"/>
+    <hyperlink ref="B296" r:id="rId301" tooltip="Search for Neoplasms, Nerve Tissue" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Nerve+Tissue%22&amp;cntry=FI" xr:uid="{0C401E80-F3D9-0F46-ABDA-BB31787001DE}"/>
+    <hyperlink ref="B297" r:id="rId302" tooltip="Search for Neoplasms, Neuroepithelial" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Neuroepithelial%22&amp;cntry=FI" xr:uid="{E44588E6-24D5-F849-8353-822E657B3617}"/>
+    <hyperlink ref="B298" r:id="rId303" tooltip="Search for Neoplasms, Plasma Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Plasma+Cell%22&amp;cntry=FI" xr:uid="{9C6B858D-88D5-8F44-A067-564F34531EFD}"/>
+    <hyperlink ref="B299" r:id="rId304" tooltip="Search for Neoplasms, Second Primary" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Second+Primary%22&amp;cntry=FI" xr:uid="{C2269567-64B2-724B-A1AE-B7181513D279}"/>
+    <hyperlink ref="B300" r:id="rId305" tooltip="Search for Neoplasms, Squamous Cell" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Squamous+Cell%22&amp;cntry=FI" xr:uid="{0F801917-6735-B846-BA62-1F4F85FF65AF}"/>
+    <hyperlink ref="B301" r:id="rId306" tooltip="Search for Neoplasms, Unknown Primary" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplasms%2C+Unknown+Primary%22&amp;cntry=FI" xr:uid="{4889CFAD-3928-B34D-866C-85506BF96EA7}"/>
+    <hyperlink ref="B302" r:id="rId307" tooltip="Search for Neoplastic Processes" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neoplastic+Processes%22&amp;cntry=FI" xr:uid="{E88A301D-D6B8-1044-86BD-1AD5641C516D}"/>
+    <hyperlink ref="B303" r:id="rId308" tooltip="Search for Nervous System Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Nervous+System+Neoplasms%22&amp;cntry=FI" xr:uid="{F53C169D-5231-9F40-8424-E32FDE1B2EA3}"/>
+    <hyperlink ref="B304" r:id="rId309" tooltip="Search for Neurocytoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neurocytoma%22&amp;cntry=FI" xr:uid="{111F9B85-7A4A-0649-ABF9-3159D4402CD3}"/>
+    <hyperlink ref="B305" r:id="rId310" tooltip="Search for Neuroectodermal Tumors" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neuroectodermal+Tumors%22&amp;cntry=FI" xr:uid="{E464448C-430C-E044-B90D-E84969971861}"/>
+    <hyperlink ref="B306" r:id="rId311" tooltip="Search for Neuroectodermal Tumors, Primitive" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neuroectodermal+Tumors%2C+Primitive%22&amp;cntry=FI" xr:uid="{434BAD76-8B61-7C45-A8DF-437C4761089B}"/>
+    <hyperlink ref="B307" r:id="rId312" tooltip="Search for Neuroendocrine Tumors" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Neuroendocrine+Tumors%22&amp;cntry=FI" xr:uid="{839B9B5A-4D40-DF46-8EA1-EE314880A2C4}"/>
+    <hyperlink ref="B308" r:id="rId313" tooltip="Search for Nevi and Melanomas" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Nevi+and+Melanomas%22&amp;cntry=FI" xr:uid="{F2F73011-DB3E-2D43-95DD-4927C1C515F0}"/>
+    <hyperlink ref="B309" r:id="rId314" tooltip="Search for Nevus" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Nevus%22&amp;cntry=FI" xr:uid="{14CEC493-EA1E-0D46-9AE7-3B8690382FFC}"/>
+    <hyperlink ref="B310" r:id="rId315" tooltip="Search for Nevus, Pigmented" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Nevus%2C+Pigmented%22&amp;cntry=FI" xr:uid="{C5B3D9BD-FD2D-1143-97E9-577606804134}"/>
+    <hyperlink ref="B311" r:id="rId316" tooltip="Search for Oligodendroglioma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Oligodendroglioma%22&amp;cntry=FI" xr:uid="{4609B1A3-D303-9C4F-8F9D-3AC00BFC97B8}"/>
+    <hyperlink ref="B312" r:id="rId317" tooltip="Search for Osteosarcoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Osteosarcoma%22&amp;cntry=FI" xr:uid="{B5608025-EC01-3B4A-8C98-F98B0483D6F6}"/>
+    <hyperlink ref="B313" r:id="rId318" tooltip="Search for Ovarian Cysts" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Ovarian+Cysts%22&amp;cntry=FI" xr:uid="{E73DACFE-8E23-DC49-B61B-99A22F81938D}"/>
+    <hyperlink ref="B314" r:id="rId319" tooltip="Search for Ovarian Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Ovarian+Neoplasms%22&amp;cntry=FI" xr:uid="{F580AEE6-8749-6646-AF32-9E08053C7ADD}"/>
+    <hyperlink ref="B315" r:id="rId320" tooltip="Search for Pancreatic Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Pancreatic+Neoplasms%22&amp;cntry=FI" xr:uid="{0DF66BDF-0B15-A64D-9772-9AC66F21915B}"/>
+    <hyperlink ref="B316" r:id="rId321" tooltip="Search for Penile Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Penile+Neoplasms%22&amp;cntry=FI" xr:uid="{386CA203-5CCE-A24A-939D-E0CDEF79EBDE}"/>
+    <hyperlink ref="B317" r:id="rId322" tooltip="Search for Peritoneal Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Peritoneal+Neoplasms%22&amp;cntry=FI" xr:uid="{A536F466-3260-B848-8A57-A32804F9E043}"/>
+    <hyperlink ref="B318" r:id="rId323" tooltip="Search for Precancerous Conditions" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Precancerous+Conditions%22&amp;cntry=FI" xr:uid="{75FE5EE4-65A2-8B44-9A47-CDDB0F4E76D3}"/>
+    <hyperlink ref="B319" r:id="rId324" tooltip="Search for Precursor Cell Lymphoblastic Leukemia-Lymphoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Precursor+Cell+Lymphoblastic+Leukemia-Lymphoma%22&amp;cntry=FI" xr:uid="{9643E52D-466F-6645-9DAA-DAC243C1E51D}"/>
+    <hyperlink ref="B320" r:id="rId325" tooltip="Search for Precursor T-Cell Lymphoblastic Leukemia-Lymphoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Precursor+T-Cell+Lymphoblastic+Leukemia-Lymphoma%22&amp;cntry=FI" xr:uid="{54C1A2A3-6F97-5B4E-B868-6A699EB2F46F}"/>
+    <hyperlink ref="B321" r:id="rId326" tooltip="Search for Preleukemia" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Preleukemia%22&amp;cntry=FI" xr:uid="{D98C1804-53E7-9D48-B864-3145718387F4}"/>
+    <hyperlink ref="B322" r:id="rId327" tooltip="Search for Prostatic Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Prostatic+Neoplasms%22&amp;cntry=FI" xr:uid="{4A1A0ED8-90D3-3E4C-8C68-11EF7BEC1E37}"/>
+    <hyperlink ref="B323" r:id="rId328" tooltip="Search for Rectal Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Rectal+Neoplasms%22&amp;cntry=FI" xr:uid="{54B2FBD0-8915-174A-A76F-CA720D15FA82}"/>
+    <hyperlink ref="B324" r:id="rId329" tooltip="Search for Respiratory Tract Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Respiratory+Tract+Neoplasms%22&amp;cntry=FI" xr:uid="{C0DAD881-2954-B24F-94DD-F1D64D9CF174}"/>
+    <hyperlink ref="B325" r:id="rId330" tooltip="Search for Sarcoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Sarcoma%22&amp;cntry=FI" xr:uid="{ACBA39FC-F153-0A4E-A91D-D3AA5D356696}"/>
+    <hyperlink ref="B326" r:id="rId331" tooltip="Search for Small Cell Lung Carcinoma" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Small+Cell+Lung+Carcinoma%22&amp;cntry=FI" xr:uid="{0DEEEACA-655C-4742-9197-B22D369F46D8}"/>
+    <hyperlink ref="B327" r:id="rId332" tooltip="Search for Squamous Cell Carcinoma of Head and Neck" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Squamous+Cell+Carcinoma+of+Head+and+Neck%22&amp;cntry=FI" xr:uid="{63E2515A-35B3-6944-95BF-A377D7E108E3}"/>
+    <hyperlink ref="B328" r:id="rId333" tooltip="Search for Squamous Intraepithelial Lesions of the Cervix" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Squamous+Intraepithelial+Lesions+of+the+Cervix%22&amp;cntry=FI" xr:uid="{C6472158-1DD4-4148-9ED3-3CB937F2F222}"/>
+    <hyperlink ref="B329" r:id="rId334" tooltip="Search for Stomach Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Stomach+Neoplasms%22&amp;cntry=FI" xr:uid="{7DDBF62C-6B89-4F49-A708-697EEFF71908}"/>
+    <hyperlink ref="B330" r:id="rId335" tooltip="Search for Synovial Cyst" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Synovial+Cyst%22&amp;cntry=FI" xr:uid="{E440FD0B-09B5-C44A-839F-9F6A9F00A652}"/>
+    <hyperlink ref="B331" r:id="rId336" tooltip="Search for Testicular Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Testicular+Neoplasms%22&amp;cntry=FI" xr:uid="{288123A2-506F-854C-89B9-BDC53BF234D0}"/>
+    <hyperlink ref="B332" r:id="rId337" tooltip="Search for Thoracic Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Thoracic+Neoplasms%22&amp;cntry=FI" xr:uid="{6B564433-32CC-5048-862B-CBE00E91C3A8}"/>
+    <hyperlink ref="B333" r:id="rId338" tooltip="Search for Thyroid Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Thyroid+Neoplasms%22&amp;cntry=FI" xr:uid="{134A5D95-4736-B94E-B0CD-B93435F85FE9}"/>
+    <hyperlink ref="B334" r:id="rId339" tooltip="Search for Triple Negative Breast Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Triple+Negative+Breast+Neoplasms%22&amp;cntry=FI" xr:uid="{5A01C147-A4B4-FE49-A1E9-59F5F4FB60B4}"/>
+    <hyperlink ref="B335" r:id="rId340" tooltip="Search for Urinary Bladder Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Urinary+Bladder+Neoplasms%22&amp;cntry=FI" xr:uid="{58492D16-8C87-DF40-AAAE-DCFA42E6AC56}"/>
+    <hyperlink ref="B336" r:id="rId341" tooltip="Search for Urogenital Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Urogenital+Neoplasms%22&amp;cntry=FI" xr:uid="{82AFB421-8697-E54C-B57C-ACABEC91A2D9}"/>
+    <hyperlink ref="B337" r:id="rId342" tooltip="Search for Urologic Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Urologic+Neoplasms%22&amp;cntry=FI" xr:uid="{68534675-D538-DE41-8493-7A1C920FEA61}"/>
+    <hyperlink ref="B338" r:id="rId343" tooltip="Search for Uterine Cervical Dysplasia" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Uterine+Cervical+Dysplasia%22&amp;cntry=FI" xr:uid="{9008C441-1F2C-E340-943B-AB5DFAB41CBD}"/>
+    <hyperlink ref="B339" r:id="rId344" tooltip="Search for Uterine Cervical Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Uterine+Cervical+Neoplasms%22&amp;cntry=FI" xr:uid="{91996F1A-6FF8-2E4C-B8A1-B1C3AF3502C6}"/>
+    <hyperlink ref="B340" r:id="rId345" tooltip="Search for Uterine Neoplasms" display="https://clinicaltrials.gov/ct2/results?recrs=abdf&amp;cond=%22Uterine+Neoplasms%22&amp;cntry=FI" xr:uid="{8A1823B1-5276-3641-8AC8-EEFA2CA4FBFD}"/>
+    <hyperlink ref="A202" r:id="rId346" tooltip="Search for Cancers and Other Neoplasms" display="https://clinicaltrials.gov/ct2/results/browse?recrs=abdf&amp;cntry=FI&amp;brwse=cond_cat_BC04" xr:uid="{E1CA68D2-D80D-AA4C-9564-69B360500CD8}"/>
+    <hyperlink ref="A203:A340" r:id="rId347" tooltip="Search for Cancers and Other Neoplasms" display="https://clinicaltrials.gov/ct2/results/browse?recrs=abdf&amp;cntry=FI&amp;brwse=cond_cat_BC04" xr:uid="{D9B099E5-B9E0-F747-8D31-62E3853A0786}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/conditions.xlsx
+++ b/doc/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japmiett/projects/neurocenter/clinicaltrials/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japmiett/projects/neurocenter/clinicaltrialsAPI/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39542E-341A-A248-9B4B-684F4E507E79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D5F11B-1799-1148-9493-F4019A9E8A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2950F63C-1F2A-2549-BC3A-14330A7261B4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2950F63C-1F2A-2549-BC3A-14330A7261B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,15 +549,9 @@
     <t>Nervous System Diseases  </t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
-    <t>Cases</t>
-  </si>
-  <si>
     <t>Alcohol-Induced Disorders</t>
   </si>
   <si>
@@ -991,13 +985,19 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Studies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1015,6 +1015,13 @@
     </font>
     <font>
       <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1041,13 +1048,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1366,7 +1374,7 @@
   <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,16 +1386,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" t="s">
-        <v>173</v>
+      <c r="B1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1401,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1415,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1429,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1443,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1471,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1499,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1513,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1527,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1541,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1555,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1569,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1583,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1597,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1611,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1625,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1639,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1653,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1667,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1681,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1695,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1723,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1737,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1751,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1765,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1793,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1807,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1821,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1835,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1863,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1877,7 +1885,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1891,7 +1899,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1919,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1933,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1947,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1975,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1989,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2017,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2031,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2045,7 +2053,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,7 +2067,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2073,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2087,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2101,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2115,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2157,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2171,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2185,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2199,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2213,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2227,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2241,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2255,7 +2263,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2269,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2283,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2297,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2311,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2325,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2339,7 +2347,7 @@
         <v>60</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2353,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2367,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2381,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2395,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2423,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2437,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2451,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2465,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2479,7 +2487,7 @@
         <v>68</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2493,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2507,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2521,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2535,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2549,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2563,7 +2571,7 @@
         <v>27</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2577,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2591,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2605,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2619,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2647,7 +2655,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2661,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2675,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2689,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2703,7 +2711,7 @@
         <v>18</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2717,7 +2725,7 @@
         <v>18</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2731,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2759,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2773,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2801,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2815,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2829,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2843,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2857,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2871,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2885,7 +2893,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2899,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2913,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2927,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2941,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2955,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2969,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2983,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2997,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3011,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3025,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3039,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3067,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3081,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3095,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3109,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3123,7 +3131,7 @@
         <v>3</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3137,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3151,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3165,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3179,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3193,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3207,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3221,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3235,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3249,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3263,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3277,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3291,7 +3299,7 @@
         <v>18</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3305,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3333,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3347,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3361,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -3375,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3389,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -3403,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -3417,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -3431,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -3445,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -3459,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -3473,7 +3481,7 @@
         <v>41</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -3487,7 +3495,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -3501,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -3515,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -3529,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -3543,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -3557,7 +3565,7 @@
         <v>7</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -3571,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -3585,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -3599,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -3613,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -3627,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -3641,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3655,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -3669,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3683,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -3697,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3711,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -3725,7 +3733,7 @@
         <v>3</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3739,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -3753,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -3767,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -3781,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -3795,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3809,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3823,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3837,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3851,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3865,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3879,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3893,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3907,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3921,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -3935,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3949,7 +3957,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3963,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3977,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3991,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -4005,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -4019,26 +4027,26 @@
         <v>2</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>2</v>
@@ -4047,12 +4055,12 @@
         <v>3</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>3</v>
@@ -4061,68 +4069,68 @@
         <v>2</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C194">
         <v>6</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>33</v>
@@ -4131,12 +4139,12 @@
         <v>1</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>137</v>
@@ -4145,40 +4153,40 @@
         <v>1</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>56</v>
@@ -4187,138 +4195,138 @@
         <v>4</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C202" s="2">
         <v>2</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C203" s="2">
         <v>22</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C204" s="2">
         <v>1</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C205" s="2">
         <v>1</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C207" s="2">
         <v>3</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C208" s="2">
         <v>1</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C209" s="2">
         <v>1</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C210" s="2">
         <v>1</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>73</v>
@@ -4327,222 +4335,222 @@
         <v>4</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C212" s="2">
         <v>24</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C213" s="2">
         <v>11</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C214" s="2">
         <v>1</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C215" s="2">
         <v>56</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C216" s="2">
         <v>3</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C217" s="2">
         <v>1</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C218" s="2">
         <v>11</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C219" s="2">
         <v>2</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C220" s="2">
         <v>2</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C221" s="2">
         <v>2</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C222" s="2">
         <v>15</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C223" s="2">
         <v>17</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C224" s="2">
         <v>11</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C225" s="2">
         <v>2</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C226" s="2">
         <v>5</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>75</v>
@@ -4551,376 +4559,376 @@
         <v>3</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C228" s="2">
         <v>3</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C229" s="2">
         <v>3</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C230" s="2">
         <v>5</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C231" s="2">
         <v>15</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C232" s="2">
         <v>1</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C233" s="2">
         <v>2</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C234" s="2">
         <v>26</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C235" s="2">
         <v>1</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C236" s="2">
         <v>21</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C237" s="2">
         <v>3</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C238" s="2">
         <v>1</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C239" s="2">
         <v>6</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C240" s="2">
         <v>1</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C241" s="2">
         <v>1</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C242" s="2">
         <v>2</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C243" s="2">
         <v>1</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C244" s="2">
         <v>26</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C245" s="2">
         <v>2</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C246" s="2">
         <v>19</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C247" s="2">
         <v>38</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C248" s="2">
         <v>3</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C249" s="2">
         <v>4</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C250" s="2">
         <v>7</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C251" s="2">
         <v>1</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C252" s="2">
         <v>2</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C253" s="2">
         <v>1</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>108</v>
@@ -4929,684 +4937,684 @@
         <v>1</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C255" s="2">
         <v>15</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C256" s="2">
         <v>11</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C257" s="2">
         <v>4</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C258" s="2">
         <v>1</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C259" s="2">
         <v>35</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C260" s="2">
         <v>5</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C261" s="2">
         <v>5</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C262" s="2">
         <v>17</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C263" s="2">
         <v>4</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C264" s="2">
         <v>17</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C265" s="2">
         <v>12</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C266" s="2">
         <v>1</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C267" s="2">
         <v>1</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C268" s="2">
         <v>1</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C269" s="2">
         <v>1</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C270" s="2">
         <v>1</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C271" s="2">
         <v>1</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C272" s="2">
         <v>2</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C273" s="2">
         <v>16</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C274" s="2">
         <v>29</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C275" s="2">
         <v>9</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C276" s="2">
         <v>1</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C277" s="2">
         <v>5</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C278" s="2">
         <v>6</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C279" s="2">
         <v>2</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C280" s="2">
         <v>17</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C281" s="2">
         <v>11</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C282" s="2">
         <v>2</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C283" s="2">
         <v>7</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C284" s="2">
         <v>4</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C285" s="2">
         <v>19</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C286" s="2">
         <v>4</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C287" s="2">
         <v>119</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C288" s="2">
         <v>1</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C289" s="2">
         <v>1</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C290" s="2">
         <v>10</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C291" s="2">
         <v>6</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C292" s="2">
         <v>1</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C293" s="2">
         <v>18</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C294" s="2">
         <v>45</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C295" s="2">
         <v>1</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C296" s="2">
         <v>18</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C297" s="2">
         <v>4</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C298" s="2">
         <v>7</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C299" s="2">
         <v>2</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C300" s="2">
         <v>2</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C301" s="2">
         <v>1</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C302" s="2">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>130</v>
@@ -5615,12 +5623,12 @@
         <v>3</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>132</v>
@@ -5629,511 +5637,511 @@
         <v>1</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C305" s="2">
         <v>17</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C306" s="2">
         <v>17</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C307" s="2">
         <v>13</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C308" s="2">
         <v>10</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C309" s="2">
         <v>10</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C310" s="2">
         <v>10</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C311" s="2">
         <v>1</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C312" s="2">
         <v>2</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C313" s="2">
         <v>1</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C314" s="2">
         <v>17</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C315" s="2">
         <v>8</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C316" s="2">
         <v>1</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C317" s="2">
         <v>2</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C318" s="2">
         <v>6</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C319" s="2">
         <v>11</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C320" s="2">
         <v>2</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C321" s="2">
         <v>7</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C322" s="2">
         <v>39</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C323" s="2">
         <v>6</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C324" s="2">
         <v>13</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C325" s="2">
         <v>3</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C326" s="2">
         <v>2</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C327" s="2">
         <v>2</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C328" s="2">
         <v>1</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C329" s="2">
         <v>2</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C330" s="2">
         <v>2</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C331" s="2">
         <v>1</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C332" s="2">
         <v>14</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C333" s="2">
         <v>1</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C334" s="2">
         <v>4</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C335" s="2">
         <v>11</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C336" s="2">
         <v>75</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C337" s="2">
         <v>19</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C338" s="2">
         <v>1</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C339" s="2">
         <v>1</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C340" s="2">
         <v>4</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
